--- a/resource/excel_ui_bar/Setting.xlsx
+++ b/resource/excel_ui_bar/Setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="15570"/>
+    <workbookView windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="4" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
   <si>
     <t>Int32</t>
@@ -31,7 +34,7 @@
     <t>Partial:3</t>
   </si>
   <si>
-    <t>加入游戏&lt;color=yellow&gt;2金&lt;/color&gt;/s,自动出兵不消耗资源，发送字母和数字设置自动出兵配置。&lt;color=#93FF86&gt;提督舰长福利可以查看置顶动态。&lt;/color&gt;;&lt;color=#6DFF00&gt;礼物出的兵质量更高&lt;/color&gt;，其余未列出的礼物按&lt;color=yellow&gt;1电池=1功勋&lt;/color&gt;结算;&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;60金&lt;/color&gt; | &lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;30金&lt;/color&gt; | &lt;color=#6DFF00&gt;牛哇牛哇&lt;/color&gt;=&lt;color=yellow&gt;3*风琴炮&lt;/color&gt; | &lt;color=#6DFF00&gt;干杯&lt;/color&gt;=&lt;color=yellow&gt;68*乌尔班巨炮(防守利器)&lt;/color&gt; | &lt;color=#6DFF00&gt;棒棒糖&lt;/color&gt;=&lt;color=yellow&gt;5*精锐古拉姆&lt;/color&gt;</t>
+    <t>&lt;color=yellow&gt;j或j1(防空)&lt;/color&gt;加入游戏，0-9可以选择出兵，每局会&lt;color=#93FF86&gt;随机兵种&lt;/color&gt;。&lt;color=yellow&gt;爆&lt;/color&gt;可以消耗积攒的金币爆一波兵，&lt;color=#93FF86&gt;击杀单位可以获得金币奖励&lt;/color&gt;，1功勋=80金。;&lt;color=#6DFF00&gt;z+数字x30&lt;/color&gt;爆30功勋的兵，&lt;color=#6DFF00&gt;人气票&lt;/color&gt;=&lt;color=yellow&gt;120金&lt;/color&gt;，每满&lt;color=#6DFF00&gt;50人气票&lt;/color&gt;会随机送来一些&lt;color=yellow&gt;强力兵种&lt;/color&gt;。&lt;color=#6DFF00&gt;小花花&lt;/color&gt;=&lt;color=yellow&gt;突袭机甲*3&lt;/color&gt;，&lt;color=#6DFF00&gt;情书&lt;/color&gt;=&lt;color=yellow&gt;更换末日炮塔&lt;/color&gt;，;&lt;color=#6DFF00&gt;为你打call&lt;/color&gt;=&lt;color=yellow&gt;喷火龙飞艇*8&lt;/color&gt;，&lt;color=#6DFF00&gt;星月盲盒&lt;/color&gt;根据开出的礼物会送不同的兵种。每天下午7点到10点结算&lt;color=yellow&gt;+30%&lt;/color&gt;功勋。</t>
   </si>
   <si>
     <t xml:space="preserve">发送&lt;color=#6DFF00&gt;加石或加塔&lt;color=yellow&gt;(塔会被攻击石头无敌)&lt;/color&gt;&lt;/color&gt;;&lt;color=#6DFF00&gt;攻&lt;/color&gt;红/蓝/上/下;&lt;color=#6DFF00&gt;点赞&lt;/color&gt;可获得&lt;color=yellow&gt;金矿&lt;/color&gt;粉丝牌有加成;&lt;color=#6DFF00&gt;签到&lt;/color&gt;命令，&lt;color=yellow&gt;舰长/提督/粉丝牌&lt;/color&gt;有加成;&lt;color=#6DFF00&gt;暴兵&lt;/color&gt;命令，&lt;color=yellow&gt;暴11ab(兵种配置)&lt;/color&gt;&lt;color=yellow&gt;暴11abx20&lt;/color&gt;;功勋暴兵命令，&lt;color=#6DFF00&gt;z12x30&lt;/color&gt;爆30功勋的步弓手和武士;&lt;color=#6DFF00&gt;背包&lt;/color&gt;命令，可查看背包里的礼物;使用背包礼物，&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿水晶球&lt;/color&gt;可简写&lt;color=#6DFF00&gt;送&lt;/color&gt;&lt;color=yellow&gt;星愿&lt;/color&gt;;&lt;color=#6DFF00&gt;升&lt;/color&gt;级命令，&lt;color=#6DFF00&gt;升0&lt;/color&gt;升级长矛兵，优先金矿;&lt;color=#6DFF00&gt;查询&lt;/color&gt;命令可查看&lt;color=yellow&gt;金矿数和功勋&lt;/color&gt;;人数少的阵营在结算时可获得一定的补偿
@@ -64,6 +67,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -71,9 +90,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +160,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,22 +180,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,92 +198,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,19 +244,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +376,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,133 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +427,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,23 +455,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,6 +499,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +531,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +543,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,58 +1043,81 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="126.125" customWidth="1"/>
+    <col min="2" max="2" width="151.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
-    <row r="5" ht="218" customHeight="1" spans="1:2">
+    <row r="5" ht="218" customHeight="1" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" ht="166" customHeight="1" spans="1:2">
+    <row r="6" ht="166" customHeight="1" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
